--- a/data/output/TearSheet_Output.xlsx
+++ b/data/output/TearSheet_Output.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjevon\Dropbox\data\phase2\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjevon\Dropbox\code\sandbox\aumi\data\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="10680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20220" windowHeight="8745"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,13 +25,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -51,14 +56,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -372,7 +379,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="O48" sqref="O48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
